--- a/service/report/report_agent.xlsx
+++ b/service/report/report_agent.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35100" windowHeight="19220" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37000" windowHeight="21060" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
@@ -144,22 +144,22 @@
     <t>Генеральный директор  ___________________________ /                                 /</t>
   </si>
   <si>
-    <t>Генеральный  директор                                    Махлонов Д.В.</t>
-  </si>
-  <si>
     <t>Главный бухгалтер             ________________________ /                                  /</t>
   </si>
   <si>
     <t>Главный бухгалтер</t>
   </si>
   <si>
-    <t xml:space="preserve">                     Махлонов Д.В..</t>
-  </si>
-  <si>
     <t>м.п.</t>
   </si>
   <si>
-    <t>_____________________________________, именуемое в дальнейшем "Агент", в лице ______________ , действующего на основании ________________ , представляет, а ООО "Речное Агентство", именуемое в дальнейшем "Компания",  в лице Генерального директора Махлонова Д.В., действующего на основании Устава, принимает настоящий отчет об исполнении агентского поручения по агентскому договору ______________________________________</t>
+    <t>Генеральный  директор                                    Туревич М.В.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                      Туревич М.В.</t>
+  </si>
+  <si>
+    <t>_____________________________________, именуемое в дальнейшем "Агент", в лице ______________ , действующего на основании ________________ , представляет, а ООО "Речное Агентство", именуемое в дальнейшем "Компания",  в лице Генерального директора  Туревича М.В., действующего на основании Устава, принимает настоящий отчет об исполнении агентского поручения по агентскому договору ______________________________________</t>
   </si>
 </sst>
 </file>
@@ -494,6 +494,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -506,35 +533,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -990,8 +990,8 @@
   </sheetPr>
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="10" x14ac:dyDescent="0"/>
@@ -1010,32 +1010,32 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="11.25" customHeight="1"/>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="5.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -1050,18 +1050,18 @@
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="36.5" customHeight="1">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" ht="5.75" customHeight="1">
       <c r="A6" s="4"/>
@@ -1080,48 +1080,48 @@
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="13.25" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="13.25" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="6.5" customHeight="1">
       <c r="A10" s="2"/>
@@ -1136,32 +1136,32 @@
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" ht="13.25" customHeight="1">
       <c r="A13" s="8"/>
@@ -1176,39 +1176,39 @@
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" ht="24.5" customHeight="1">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39" t="s">
+      <c r="G14" s="37"/>
+      <c r="H14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40" t="s">
+      <c r="I14" s="37"/>
+      <c r="J14" s="38" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" ht="37" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="10" t="s">
         <v>18</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="I15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="40"/>
+      <c r="J15" s="38"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" ht="22.25" customHeight="1">
       <c r="A16" s="12">
@@ -1240,13 +1240,13 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="H17" s="23"/>
@@ -1266,32 +1266,32 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" s="1" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" ht="13.25" customHeight="1">
       <c r="A21" s="4"/>
@@ -1318,18 +1318,18 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" s="1" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" ht="13.25" customHeight="1">
       <c r="A24" s="8" t="s">
@@ -1343,32 +1343,32 @@
       <c r="G24" s="8"/>
     </row>
     <row r="25" spans="1:10" s="1" customFormat="1" ht="61" customHeight="1">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="36" t="s">
+      <c r="C25" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E25" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="38"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="1:10" s="1" customFormat="1" ht="25.75" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="37"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="9" t="s">
         <v>30</v>
       </c>
@@ -1377,13 +1377,13 @@
       </c>
     </row>
     <row r="27" spans="1:10" s="1" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="26"/>
       <c r="G27" s="27"/>
     </row>
@@ -1393,14 +1393,14 @@
       <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:10" s="1" customFormat="1" ht="12.5" customHeight="1">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
     </row>
     <row r="30" spans="1:10" s="1" customFormat="1" ht="12.5" customHeight="1">
       <c r="A30" s="4" t="s">
@@ -1420,16 +1420,16 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" s="1" customFormat="1" ht="13.25" customHeight="1">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
@@ -1469,12 +1469,12 @@
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
+      <c r="F35" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
       <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="12.5" customHeight="1">
@@ -1503,18 +1503,18 @@
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" ht="12.5" customHeight="1">
       <c r="A38" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="29"/>
@@ -1522,14 +1522,14 @@
     <row r="39" spans="1:10" s="1" customFormat="1" ht="12.5" customHeight="1">
       <c r="A39" s="4"/>
       <c r="B39" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
@@ -1538,22 +1538,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="30">
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:J15"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A29:F29"/>
@@ -1568,6 +1552,22 @@
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="F25:G25"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C8:J8"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="0.98" bottom="0.98" header="0.51" footer="0.51"/>
